--- a/foot_print_data_base.xlsx
+++ b/foot_print_data_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv2016\RedirectedFolders\itay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E97EB63-C926-4D02-95C0-C6ADF078077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB7668-8BFF-4A40-B9B1-6DC74BD3C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4748E53-B44F-4326-A4B8-29ACE0D4E639}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FULL_NAME</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>FUEL_CARBON_FOOT_PRINT</t>
+  </si>
+  <si>
+    <t>alona</t>
+  </si>
+  <si>
+    <t>alona hoz</t>
+  </si>
+  <si>
+    <t>alon1105</t>
   </si>
 </sst>
 </file>
@@ -419,13 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484DAA57-E8FF-49CB-83C5-EC28FB23D0FC}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -468,6 +480,53 @@
         <v>12</v>
       </c>
       <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>329458418</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/foot_print_data_base.xlsx
+++ b/foot_print_data_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv2016\RedirectedFolders\itay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB7668-8BFF-4A40-B9B1-6DC74BD3C780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347C496-D4A9-4CBA-95ED-95A507BC5EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4748E53-B44F-4326-A4B8-29ACE0D4E639}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FULL_NAME</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>FUEL_CARBON_FOOT_PRINT</t>
-  </si>
-  <si>
-    <t>alona</t>
-  </si>
-  <si>
-    <t>alona hoz</t>
-  </si>
-  <si>
-    <t>alon1105</t>
   </si>
 </sst>
 </file>
@@ -428,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484DAA57-E8FF-49CB-83C5-EC28FB23D0FC}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,53 +472,6 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>329458418</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>150</v>
-      </c>
-      <c r="G2">
-        <v>160</v>
-      </c>
-      <c r="H2">
-        <v>300</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/foot_print_data_base.xlsx
+++ b/foot_print_data_base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv2016\RedirectedFolders\itay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347C496-D4A9-4CBA-95ED-95A507BC5EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE1EEC-E0EF-48A5-8E10-361DBF3AA895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4748E53-B44F-4326-A4B8-29ACE0D4E639}"/>
   </bookViews>

--- a/foot_print_data_base.xlsx
+++ b/foot_print_data_base.xlsx
@@ -1,88 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv2016\RedirectedFolders\itay\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE1EEC-E0EF-48A5-8E10-361DBF3AA895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4748E53-B44F-4326-A4B8-29ACE0D4E639}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>FULL_NAME</t>
-  </si>
-  <si>
-    <t>ID_NUMBER</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>ELECTRICAL_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>WATER_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>GAS_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>FUEL_ACCOUNT_PAYMENT</t>
-  </si>
-  <si>
-    <t>PERSONAL_CFP_PERCENT</t>
-  </si>
-  <si>
-    <t>ELECTRICAL_CARBON_FOOT_PRINT</t>
-  </si>
-  <si>
-    <t>WATER_CARBON_FOOT_PRINT</t>
-  </si>
-  <si>
-    <t>GAS_CARBON_FOOT_PRINT</t>
-  </si>
-  <si>
-    <t>FUEL_CARBON_FOOT_PRINT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Arial"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,24 +48,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,61 +424,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484DAA57-E8FF-49CB-83C5-EC28FB23D0FC}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col width="9.75" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FULL_NAME</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ID_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>USERNAME</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PASSWORD</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>WATER_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>GAS_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>FUEL_ACCOUNT_PAYMENT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>PERSONAL_CFP_PERCENT</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL_CARBON_FOOT_PRINT</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>WATER_CARBON_FOOT_PRINT</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>GAS_CARBON_FOOT_PRINT</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>FUEL_CARBON_FOOT_PRINT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>alona hoz</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>329458418</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alona</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alon1105</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150</v>
+      </c>
+      <c r="G2" t="n">
+        <v>160</v>
+      </c>
+      <c r="H2" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1"/>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MIKEY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MIKEY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SAMY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>elec_payment</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>water_payment</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>gas_payment</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>fuel_payment</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>arbon_foot_print</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>electricity_cfp</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>water_cfp</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>gas_cfp</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>